--- a/biology/Zoologie/Eorhincodon/Eorhincodon.xlsx
+++ b/biology/Zoologie/Eorhincodon/Eorhincodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eorhincodon tianshanensis
-Eorhincodon tianshanensis (unique espèce du genre Eorhincodon) est une espèce éteinte de requins Orectolobiformes[1] de la famille des  Rhincodontidae, donc proche de l'actuel requin baleine et du genre éteint  Palaeorhincodon. Il mesurait 4 à 9 mètres de long et pesait 5 tonnes. Le genre a vécu au Crétacé, il y a entre 105,3  à   94,3 millions d'années en Russie et en Chine. Il s'agit d'un des plus vieux de sa famille.
+Eorhincodon tianshanensis (unique espèce du genre Eorhincodon) est une espèce éteinte de requins Orectolobiformes de la famille des  Rhincodontidae, donc proche de l'actuel requin baleine et du genre éteint  Palaeorhincodon. Il mesurait 4 à 9 mètres de long et pesait 5 tonnes. Le genre a vécu au Crétacé, il y a entre 105,3  à   94,3 millions d'années en Russie et en Chine. Il s'agit d'un des plus vieux de sa famille.
 </t>
         </is>
       </c>
